--- a/Industrials/Caterpillar.xlsx
+++ b/Industrials/Caterpillar.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Industrials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F894A2D-E2E8-4440-A737-8EF169262C14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38E32764-C67E-2B49-B141-CB11372796BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
@@ -1398,7 +1398,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1714,9 +1714,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
   </cellXfs>
@@ -1750,11 +1753,14 @@
       <sheetName val="Financials"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
-      <sheetName val="Commodities"/>
+      <sheetName val="Basic Materials"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="High Growth"/>
-      <sheetName val="GARP"/>
+      <sheetName val="Fidelity"/>
+      <sheetName val="Schwab"/>
+      <sheetName val="Top Consumer Stocks"/>
+      <sheetName val="Dividend Portfolio"/>
       <sheetName val="Watchlist"/>
+      <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
@@ -1772,7 +1778,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.3360000000000003E-2</v>
+            <v>4.1210000000000004E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1784,6 +1790,9 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1911,11 +1920,11 @@
     <v>Powered by Refinitiv</v>
     <v>293.88</v>
     <v>204.04</v>
-    <v>1.0720000000000001</v>
-    <v>1.95</v>
-    <v>7.8790000000000006E-3</v>
-    <v>-0.01</v>
-    <v>-4.0090000000000004E-5</v>
+    <v>1.0960000000000001</v>
+    <v>2.02</v>
+    <v>7.8469999999999998E-3</v>
+    <v>0.09</v>
+    <v>3.4680000000000003E-4</v>
     <v>USD</v>
     <v>Caterpillar Inc. is a manufacturer of construction and mining equipment, diesel and natural gas engines, industrial gas turbines and diesel-electric locomotives. The Company operates through its three primary segments: Construction Industries, Resource Industries and Energy &amp; Transportation. It also provides financing and related services through its Financial Products segment. Its Construction Industries is engaged in supporting customers using machinery in infrastructure, forestry and building construction. Its Resource Industries is engaged in supporting customers using machinery in mining, heavy construction, and quarry and aggregates. Its Energy &amp; Transportation, which supports customers in oil and gas, power generation, marine, rail and industrial applications, including Caterpillar machines. Its All Other operating segment, which includes activities, such as product management and development, manufacturing of filters and fluids, undercarriage, ground-engaging tools, and others.</v>
     <v>109100</v>
@@ -1923,25 +1932,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>5205 N. O'connor Boulevard, Suite 100, IRVING, TX, 75039 US</v>
-    <v>251.58</v>
+    <v>261.64</v>
     <v>Machinery, Equipment &amp; Components</v>
     <v>Stock</v>
-    <v>45260.041105925782</v>
+    <v>45269.036605300782</v>
     <v>0</v>
-    <v>248.31</v>
-    <v>127255196295</v>
+    <v>257</v>
+    <v>132107500000</v>
     <v>CATERPILLAR INC.</v>
     <v>CATERPILLAR INC.</v>
-    <v>249.68</v>
-    <v>14.1326</v>
-    <v>247.5</v>
-    <v>249.45</v>
-    <v>249.44</v>
-    <v>510143100</v>
+    <v>257.38</v>
+    <v>14.583500000000001</v>
+    <v>257.41000000000003</v>
+    <v>259.43</v>
+    <v>259.58999999999997</v>
+    <v>509084700</v>
     <v>CAT</v>
     <v>CATERPILLAR INC. (XNYS:CAT)</v>
-    <v>2224796</v>
-    <v>3561227</v>
+    <v>3258348</v>
+    <v>3050529</v>
     <v>1986</v>
   </rv>
   <rv s="2">
@@ -2106,9 +2115,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -14055,7 +14064,7 @@
   <dimension ref="A1:R110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14108,7 +14117,7 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="36" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>127255196295</v>
+        <v>132107500000</v>
       </c>
       <c r="B3" s="37" t="s">
         <v>201</v>
@@ -14136,14 +14145,14 @@
       </c>
       <c r="I3" s="41">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>185943297503.83322</v>
+        <v>182033711646.00018</v>
       </c>
       <c r="J3" s="42" t="s">
         <v>205</v>
       </c>
       <c r="K3" s="43">
         <f>(Financials!O172*-1)/Model!A3</f>
-        <v>1.957483916197357E-2</v>
+        <v>1.8855856026342183E-2</v>
       </c>
       <c r="L3" s="44" t="s">
         <v>206</v>
@@ -14181,21 +14190,21 @@
       </c>
       <c r="G4" s="50">
         <f>A5*(1+(5*G3))</f>
-        <v>449603634.69617951</v>
+        <v>448670836.64997947</v>
       </c>
       <c r="H4" s="49" t="s">
         <v>211</v>
       </c>
       <c r="I4" s="51">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>164282670300.18121</v>
+        <v>160827219648.22946</v>
       </c>
       <c r="J4" s="49" t="s">
         <v>212</v>
       </c>
       <c r="K4" s="52" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>7.8790000000000006E-3</v>
+        <v>7.8469999999999998E-3</v>
       </c>
       <c r="L4" s="53" t="s">
         <v>213</v>
@@ -14212,7 +14221,7 @@
     <row r="5" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="46" cm="1">
         <f t="array" ref="A5">_FV(A1,"Shares outstanding",TRUE)</f>
-        <v>510143100</v>
+        <v>509084700</v>
       </c>
       <c r="B5" s="47" t="s">
         <v>215</v>
@@ -14240,14 +14249,14 @@
       </c>
       <c r="I5" s="51">
         <f>I4+G5-G6</f>
-        <v>133970670300.18121</v>
+        <v>130515219648.22946</v>
       </c>
       <c r="J5" s="49" t="s">
         <v>219</v>
       </c>
       <c r="K5" s="55" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>249.45</v>
+        <v>259.43</v>
       </c>
       <c r="L5" s="56" t="s">
         <v>220</v>
@@ -14267,7 +14276,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="59">
         <f>O20/F10</f>
-        <v>1.8913705938438214</v>
+        <v>1.9634894919889421</v>
       </c>
       <c r="B6" s="47" t="s">
         <v>222</v>
@@ -14295,14 +14304,14 @@
       </c>
       <c r="I6" s="52">
         <f>N25</f>
-        <v>7.736811506905357E-2</v>
+        <v>7.8492838837107573E-2</v>
       </c>
       <c r="J6" s="49" t="s">
         <v>225</v>
       </c>
       <c r="K6" s="60">
         <f>I5/G4</f>
-        <v>297.97506061247066</v>
+        <v>290.89303111993434</v>
       </c>
       <c r="L6" s="61" t="s">
         <v>226</v>
@@ -14322,14 +14331,14 @@
     <row r="7" spans="1:18" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="62">
         <f>O20/F12</f>
-        <v>15.702763609945706</v>
+        <v>16.301517769002963</v>
       </c>
       <c r="B7" s="63" t="s">
         <v>228</v>
       </c>
       <c r="C7" s="64">
         <f>F15/A3</f>
-        <v>6.7093527404628803E-2</v>
+        <v>6.462918456559999E-2</v>
       </c>
       <c r="D7" s="63" t="s">
         <v>229</v>
@@ -14356,7 +14365,7 @@
       </c>
       <c r="K7" s="70">
         <f>K6/K5-1</f>
-        <v>0.19452820449978225</v>
+        <v>0.12127753582829404</v>
       </c>
       <c r="L7" s="71" t="s">
         <v>232</v>
@@ -14683,7 +14692,7 @@
       </c>
       <c r="O14" s="90">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.3360000000000003E-2</v>
+        <v>4.1210000000000004E-2</v>
       </c>
       <c r="P14" s="45"/>
       <c r="Q14" s="45"/>
@@ -14835,7 +14844,7 @@
       </c>
       <c r="O17" s="100">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>9.7411200000000003E-2</v>
+        <v>9.8120700000000005E-2</v>
       </c>
       <c r="P17" s="45"/>
       <c r="Q17" s="45"/>
@@ -14918,24 +14927,24 @@
       </c>
       <c r="O20" s="106">
         <f>A3</f>
-        <v>127255196295</v>
+        <v>132107500000</v>
       </c>
       <c r="P20" s="45"/>
       <c r="Q20" s="45"/>
       <c r="R20" s="45"/>
     </row>
     <row r="21" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="120" t="str" cm="1">
+      <c r="A21" s="121" t="str" cm="1">
         <f t="array" ref="A21">_FV(A1,"Industry")</f>
         <v>Machinery, Equipment &amp; Components</v>
       </c>
-      <c r="B21" s="120"/>
-      <c r="C21" s="121" cm="1">
-        <f t="array" ref="C21">_FV(A1,"Year incorporated",TRUE)</f>
+      <c r="B21" s="121"/>
+      <c r="C21" s="121"/>
+      <c r="D21" s="122" cm="1">
+        <f t="array" ref="D21">_FV(A1,"Year incorporated",TRUE)</f>
         <v>1986</v>
       </c>
-      <c r="D21" s="121"/>
-      <c r="E21" s="121"/>
+      <c r="E21" s="122"/>
       <c r="F21" s="73"/>
       <c r="G21" s="73"/>
       <c r="H21" s="73"/>
@@ -14948,7 +14957,7 @@
       </c>
       <c r="O21" s="106">
         <f>O19+O20</f>
-        <v>164954196295</v>
+        <v>169806500000</v>
       </c>
       <c r="P21" s="45"/>
       <c r="Q21" s="45"/>
@@ -14976,7 +14985,7 @@
       </c>
       <c r="O22" s="108">
         <f>(O19/O21)</f>
-        <v>0.22854223079345035</v>
+        <v>0.22201152488273418</v>
       </c>
       <c r="P22" s="45"/>
       <c r="Q22" s="45"/>
@@ -15001,7 +15010,7 @@
       </c>
       <c r="O23" s="109">
         <f>O20/O21</f>
-        <v>0.77145776920654963</v>
+        <v>0.77798847511726588</v>
       </c>
       <c r="P23" s="45"/>
       <c r="Q23" s="45"/>
@@ -15045,7 +15054,7 @@
       <c r="M25" s="73"/>
       <c r="N25" s="112">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>7.736811506905357E-2</v>
+        <v>7.8492838837107573E-2</v>
       </c>
       <c r="O25" s="113"/>
       <c r="P25" s="45"/>
@@ -15980,8 +15989,8 @@
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="N13:O13"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:E21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F9" r:id="rId1" display="https://finbox.com/NYSE:CAT/explorer/revenue_proj" xr:uid="{9FFE2861-5ACE-2743-8641-52B3E5F6D94A}"/>
